--- a/Gyomu/Format/税抜出荷伝票.xlsx
+++ b/Gyomu/Format/税抜出荷伝票.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="810" windowWidth="13455" windowHeight="13185"/>
+    <workbookView xWindow="-7215" yWindow="4080" windowWidth="15195" windowHeight="15270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -471,6 +471,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -497,27 +518,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -838,7 +838,7 @@
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -865,17 +865,17 @@
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="37" t="s">
+      <c r="A2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1">
       <c r="A3" s="2"/>
@@ -978,54 +978,52 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1">
-      <c r="A11" s="33"/>
-      <c r="B11" s="32" t="s">
+      <c r="A11" s="40"/>
+      <c r="B11" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="34" t="s">
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="H11" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="29" t="s">
+      <c r="I11" s="36" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1">
-      <c r="A12" s="33"/>
-      <c r="B12" s="30" t="s">
+      <c r="A12" s="40"/>
+      <c r="B12" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="31"/>
+      <c r="C12" s="38"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="29"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="36"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1">
-      <c r="A13" s="33">
-        <v>1</v>
-      </c>
+      <c r="A13" s="40"/>
       <c r="B13" s="20"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="38"/>
+      <c r="G13" s="29"/>
       <c r="H13" s="25"/>
-      <c r="I13" s="39"/>
+      <c r="I13" s="30"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
-      <c r="A14" s="33"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="16"/>
       <c r="C14" s="12"/>
       <c r="D14" s="17"/>
@@ -1033,23 +1031,21 @@
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
-      <c r="I14" s="40"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
-      <c r="A15" s="33">
-        <v>2</v>
-      </c>
+      <c r="A15" s="40"/>
       <c r="B15" s="20"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="2"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="39"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="30"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
-      <c r="A16" s="33"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="16"/>
       <c r="C16" s="3"/>
       <c r="D16" s="8"/>
@@ -1057,23 +1053,21 @@
       <c r="F16" s="8"/>
       <c r="G16" s="17"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="41"/>
+      <c r="I16" s="32"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
-      <c r="A17" s="33">
-        <v>3</v>
-      </c>
+      <c r="A17" s="40"/>
       <c r="B17" s="20"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="26"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="43"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="34"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1">
-      <c r="A18" s="33"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="16"/>
       <c r="C18" s="12"/>
       <c r="D18" s="17"/>
@@ -1081,23 +1075,21 @@
       <c r="F18" s="17"/>
       <c r="G18" s="8"/>
       <c r="H18" s="17"/>
-      <c r="I18" s="40"/>
+      <c r="I18" s="31"/>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1">
-      <c r="A19" s="33">
-        <v>4</v>
-      </c>
+      <c r="A19" s="40"/>
       <c r="B19" s="20"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="2"/>
       <c r="G19" s="26"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="39"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="30"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
-      <c r="A20" s="33"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="16"/>
       <c r="C20" s="1"/>
       <c r="D20" s="2"/>
@@ -1105,23 +1097,21 @@
       <c r="F20" s="2"/>
       <c r="G20" s="17"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="41"/>
+      <c r="I20" s="32"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
-      <c r="A21" s="33">
-        <v>5</v>
-      </c>
+      <c r="A21" s="40"/>
       <c r="B21" s="20"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
       <c r="F21" s="26"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="43"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
-      <c r="A22" s="33"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="16"/>
       <c r="C22" s="12"/>
       <c r="D22" s="17"/>
@@ -1129,23 +1119,21 @@
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
-      <c r="I22" s="40"/>
+      <c r="I22" s="31"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
-      <c r="A23" s="33">
-        <v>6</v>
-      </c>
+      <c r="A23" s="40"/>
       <c r="B23" s="20"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="2"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="39"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="30"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
-      <c r="A24" s="33"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="16"/>
       <c r="C24" s="1"/>
       <c r="D24" s="2"/>
@@ -1153,23 +1141,21 @@
       <c r="F24" s="2"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
-      <c r="I24" s="41"/>
+      <c r="I24" s="32"/>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1">
-      <c r="A25" s="33">
-        <v>7</v>
-      </c>
+      <c r="A25" s="40"/>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
       <c r="F25" s="26"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="43"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="34"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1">
-      <c r="A26" s="33"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="16"/>
       <c r="C26" s="12"/>
       <c r="D26" s="17"/>
@@ -1177,23 +1163,21 @@
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
-      <c r="I26" s="40"/>
+      <c r="I26" s="31"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1">
-      <c r="A27" s="33">
-        <v>8</v>
-      </c>
+      <c r="A27" s="40"/>
       <c r="B27" s="20"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="39"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="30"/>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1">
-      <c r="A28" s="33"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="16"/>
       <c r="C28" s="1"/>
       <c r="D28" s="17"/>
@@ -1201,23 +1185,21 @@
       <c r="F28" s="2"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="41"/>
+      <c r="I28" s="32"/>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1">
-      <c r="A29" s="33">
-        <v>9</v>
-      </c>
+      <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="26"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="43"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="34"/>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1">
-      <c r="A30" s="33"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="16"/>
       <c r="C30" s="12"/>
       <c r="D30" s="17"/>
@@ -1225,23 +1207,21 @@
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
-      <c r="I30" s="40"/>
+      <c r="I30" s="31"/>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1">
-      <c r="A31" s="33">
-        <v>10</v>
-      </c>
+      <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="39"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="30"/>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1">
-      <c r="A32" s="33"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="16"/>
       <c r="C32" s="1"/>
       <c r="D32" s="17"/>
@@ -1249,12 +1229,10 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="41"/>
+      <c r="I32" s="32"/>
     </row>
     <row r="33" spans="1:9" ht="15" customHeight="1">
-      <c r="A33" s="33">
-        <v>11</v>
-      </c>
+      <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
@@ -1262,10 +1240,10 @@
       <c r="F33" s="26"/>
       <c r="G33" s="26"/>
       <c r="H33" s="26"/>
-      <c r="I33" s="44"/>
+      <c r="I33" s="35"/>
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1">
-      <c r="A34" s="33"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="16"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
@@ -1273,12 +1251,10 @@
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
-      <c r="I34" s="40"/>
+      <c r="I34" s="31"/>
     </row>
     <row r="35" spans="1:9" ht="15" customHeight="1">
-      <c r="A35" s="33">
-        <v>12</v>
-      </c>
+      <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1286,10 +1262,10 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="41"/>
+      <c r="I35" s="32"/>
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1">
-      <c r="A36" s="33"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="16"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1297,12 +1273,10 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="41"/>
+      <c r="I36" s="32"/>
     </row>
     <row r="37" spans="1:9" ht="15" customHeight="1">
-      <c r="A37" s="33">
-        <v>13</v>
-      </c>
+      <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
@@ -1310,10 +1284,10 @@
       <c r="F37" s="26"/>
       <c r="G37" s="26"/>
       <c r="H37" s="26"/>
-      <c r="I37" s="44"/>
+      <c r="I37" s="35"/>
     </row>
     <row r="38" spans="1:9" ht="15" customHeight="1">
-      <c r="A38" s="33"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="16"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
@@ -1321,12 +1295,10 @@
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
       <c r="H38" s="17"/>
-      <c r="I38" s="40"/>
+      <c r="I38" s="31"/>
     </row>
     <row r="39" spans="1:9" ht="15" customHeight="1">
-      <c r="A39" s="33">
-        <v>14</v>
-      </c>
+      <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1334,10 +1306,10 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
-      <c r="I39" s="41"/>
+      <c r="I39" s="32"/>
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1">
-      <c r="A40" s="33"/>
+      <c r="A40" s="40"/>
       <c r="B40" s="16"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1345,12 +1317,10 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="41"/>
+      <c r="I40" s="32"/>
     </row>
     <row r="41" spans="1:9" ht="15" customHeight="1">
-      <c r="A41" s="33">
-        <v>15</v>
-      </c>
+      <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
@@ -1358,10 +1328,10 @@
       <c r="F41" s="26"/>
       <c r="G41" s="26"/>
       <c r="H41" s="26"/>
-      <c r="I41" s="44"/>
+      <c r="I41" s="35"/>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1">
-      <c r="A42" s="33"/>
+      <c r="A42" s="40"/>
       <c r="B42" s="16"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
@@ -1369,12 +1339,10 @@
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
       <c r="H42" s="17"/>
-      <c r="I42" s="40"/>
+      <c r="I42" s="31"/>
     </row>
     <row r="43" spans="1:9" ht="15" customHeight="1">
-      <c r="A43" s="33">
-        <v>16</v>
-      </c>
+      <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1382,10 +1350,10 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
-      <c r="I43" s="41"/>
+      <c r="I43" s="32"/>
     </row>
     <row r="44" spans="1:9" ht="15" customHeight="1">
-      <c r="A44" s="33"/>
+      <c r="A44" s="40"/>
       <c r="B44" s="16"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1393,12 +1361,10 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="41"/>
+      <c r="I44" s="32"/>
     </row>
     <row r="45" spans="1:9" ht="15" customHeight="1">
-      <c r="A45" s="33">
-        <v>17</v>
-      </c>
+      <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
@@ -1406,10 +1372,10 @@
       <c r="F45" s="26"/>
       <c r="G45" s="26"/>
       <c r="H45" s="26"/>
-      <c r="I45" s="44"/>
+      <c r="I45" s="35"/>
     </row>
     <row r="46" spans="1:9" ht="15" customHeight="1">
-      <c r="A46" s="33"/>
+      <c r="A46" s="40"/>
       <c r="B46" s="16"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
@@ -1417,12 +1383,10 @@
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
-      <c r="I46" s="40"/>
+      <c r="I46" s="31"/>
     </row>
     <row r="47" spans="1:9" ht="15" customHeight="1">
-      <c r="A47" s="33">
-        <v>18</v>
-      </c>
+      <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1430,10 +1394,10 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
-      <c r="I47" s="41"/>
+      <c r="I47" s="32"/>
     </row>
     <row r="48" spans="1:9" ht="15" customHeight="1">
-      <c r="A48" s="33"/>
+      <c r="A48" s="40"/>
       <c r="B48" s="16"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1441,12 +1405,10 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
-      <c r="I48" s="41"/>
+      <c r="I48" s="32"/>
     </row>
     <row r="49" spans="1:9" ht="15" customHeight="1">
-      <c r="A49" s="33">
-        <v>19</v>
-      </c>
+      <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
@@ -1454,10 +1416,10 @@
       <c r="F49" s="26"/>
       <c r="G49" s="26"/>
       <c r="H49" s="26"/>
-      <c r="I49" s="44"/>
+      <c r="I49" s="35"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="33"/>
+      <c r="A50" s="40"/>
       <c r="B50" s="16"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
@@ -1465,12 +1427,10 @@
       <c r="F50" s="17"/>
       <c r="G50" s="17"/>
       <c r="H50" s="17"/>
-      <c r="I50" s="40"/>
+      <c r="I50" s="31"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="33">
-        <v>20</v>
-      </c>
+      <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
@@ -1478,10 +1438,10 @@
       <c r="F51" s="26"/>
       <c r="G51" s="26"/>
       <c r="H51" s="26"/>
-      <c r="I51" s="44"/>
+      <c r="I51" s="35"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="33"/>
+      <c r="A52" s="40"/>
       <c r="B52" s="16"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
@@ -1489,7 +1449,7 @@
       <c r="F52" s="17"/>
       <c r="G52" s="17"/>
       <c r="H52" s="17"/>
-      <c r="I52" s="40"/>
+      <c r="I52" s="31"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
@@ -1519,8 +1479,8 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A2:I2"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C2:G2"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A17:A18"/>
@@ -1549,8 +1509,8 @@
     <mergeCell ref="A33:A34"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0.59055118110236227" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>